--- a/Вентлиторы.XLSX
+++ b/Вентлиторы.XLSX
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820" activeTab="5"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="94">
   <si>
     <t>Наименование</t>
   </si>
@@ -197,16 +197,122 @@
   </si>
   <si>
     <t>Цена розница</t>
+  </si>
+  <si>
+    <t>Твердотельное реле</t>
+  </si>
+  <si>
+    <t>ELHART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS1-UA-025 S </t>
+  </si>
+  <si>
+    <t>Радиатор для однофазного реле 40А</t>
+  </si>
+  <si>
+    <t>H1-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок питания </t>
+  </si>
+  <si>
+    <t>230AC/24DC</t>
+  </si>
+  <si>
+    <t>EKF</t>
+  </si>
+  <si>
+    <t>dr-120w-24</t>
+  </si>
+  <si>
+    <t>Вентилятор с фильтром</t>
+  </si>
+  <si>
+    <t>FAN52F</t>
+  </si>
+  <si>
+    <t>Вентиляционная решётка</t>
+  </si>
+  <si>
+    <t>EXF52</t>
+  </si>
+  <si>
+    <t>Провод силовой</t>
+  </si>
+  <si>
+    <t>ПуГВнг 1Х0,75 черный</t>
+  </si>
+  <si>
+    <t>ПуГВнг 1Х0,75 синий</t>
+  </si>
+  <si>
+    <t>ПуГВнг 1Х0,75 красный</t>
+  </si>
+  <si>
+    <t>ПуГВнг 1Х0,75 белый</t>
+  </si>
+  <si>
+    <t>DIN-рейка</t>
+  </si>
+  <si>
+    <t>adr-1.0</t>
+  </si>
+  <si>
+    <t>Кабель-канал перфорированный</t>
+  </si>
+  <si>
+    <t>60Х40</t>
+  </si>
+  <si>
+    <t>kk60-40</t>
+  </si>
+  <si>
+    <t>40Х25</t>
+  </si>
+  <si>
+    <t>kk40-25</t>
+  </si>
+  <si>
+    <t>Лента спиральная монтажная</t>
+  </si>
+  <si>
+    <t>plc-swb-10</t>
+  </si>
+  <si>
+    <t>Наконечник НШВИ</t>
+  </si>
+  <si>
+    <t>1Х0,75</t>
+  </si>
+  <si>
+    <t>nhvi-0.75-8</t>
+  </si>
+  <si>
+    <t>2Х0,75</t>
+  </si>
+  <si>
+    <t>nhvi2-0.75-8</t>
+  </si>
+  <si>
+    <t>Шкаф</t>
+  </si>
+  <si>
+    <t>1000Х650Х300</t>
+  </si>
+  <si>
+    <t>mb24-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +324,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -329,11 +455,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -348,15 +477,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
+    <cellStyle name="Денежный 2" xfId="3"/>
+    <cellStyle name="Денежный 3" xfId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="49">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -384,6 +596,28 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -400,6 +634,68 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -464,6 +760,51 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -482,6 +823,82 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -508,7 +925,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -527,6 +943,95 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -558,16 +1063,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -580,59 +1081,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -651,51 +1103,57 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -706,25 +1164,15 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -743,264 +1191,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1152,40 +1342,40 @@
   <tableColumns count="6">
     <tableColumn id="1" name="№" dataDxfId="44"/>
     <tableColumn id="2" name="Наименование" dataDxfId="43"/>
-    <tableColumn id="6" name="Производитель" dataDxfId="10"/>
-    <tableColumn id="3" name="Артикул" dataDxfId="42"/>
-    <tableColumn id="4" name="Параметры" dataDxfId="41"/>
-    <tableColumn id="7" name="Цена розница" dataDxfId="40"/>
+    <tableColumn id="6" name="Производитель" dataDxfId="42"/>
+    <tableColumn id="3" name="Артикул" dataDxfId="41"/>
+    <tableColumn id="4" name="Параметры" dataDxfId="40"/>
+    <tableColumn id="7" name="Цена розница" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица279" displayName="Таблица279" ref="A1:F18" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица279" displayName="Таблица279" ref="A1:F18" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A1:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="35"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="34"/>
-    <tableColumn id="9" name="Производитель" dataDxfId="9"/>
-    <tableColumn id="3" name="Артикул" dataDxfId="33"/>
-    <tableColumn id="4" name="Параметры" dataDxfId="8"/>
-    <tableColumn id="7" name="Цена розница" dataDxfId="32"/>
+    <tableColumn id="1" name="№" dataDxfId="34"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="33"/>
+    <tableColumn id="9" name="Производитель" dataDxfId="32"/>
+    <tableColumn id="3" name="Артикул" dataDxfId="31"/>
+    <tableColumn id="4" name="Параметры" dataDxfId="30"/>
+    <tableColumn id="7" name="Цена розница" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица27" displayName="Таблица27" ref="A1:F18" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица27" displayName="Таблица27" ref="A1:F18" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="27"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="26"/>
-    <tableColumn id="3" name="Производитель" dataDxfId="25"/>
-    <tableColumn id="5" name="Артикул" dataDxfId="6"/>
-    <tableColumn id="4" name="Параметры" dataDxfId="7"/>
-    <tableColumn id="7" name="Цена розница" dataDxfId="24"/>
+    <tableColumn id="1" name="№" dataDxfId="24"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="23"/>
+    <tableColumn id="3" name="Производитель" dataDxfId="22"/>
+    <tableColumn id="5" name="Артикул" dataDxfId="21"/>
+    <tableColumn id="4" name="Параметры" dataDxfId="20"/>
+    <tableColumn id="7" name="Цена розница" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1195,42 +1385,42 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Таблица510" displayName="Таблица510" ref="A1:F5" totalsRowShown="0">
   <autoFilter ref="A1:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="23"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="22"/>
-    <tableColumn id="8" name="Производитель" dataDxfId="5"/>
-    <tableColumn id="9" name="Артикул" dataDxfId="4"/>
-    <tableColumn id="5" name="Параметры" dataDxfId="21"/>
-    <tableColumn id="6" name="Цена розница" dataDxfId="20"/>
+    <tableColumn id="1" name="№" dataDxfId="18"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="17"/>
+    <tableColumn id="8" name="Производитель" dataDxfId="16"/>
+    <tableColumn id="9" name="Артикул" dataDxfId="15"/>
+    <tableColumn id="5" name="Параметры" dataDxfId="14"/>
+    <tableColumn id="6" name="Цена розница" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица10" displayName="Таблица10" ref="A1:F13" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица10" displayName="Таблица10" ref="A1:F13" totalsRowShown="0" tableBorderDxfId="12">
   <autoFilter ref="A1:F13"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="18"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="17"/>
-    <tableColumn id="8" name="Производитель" dataDxfId="3"/>
-    <tableColumn id="9" name="Артикул" dataDxfId="2"/>
-    <tableColumn id="3" name="Параметры" dataDxfId="16"/>
-    <tableColumn id="6" name="Цена розница" dataDxfId="15"/>
+    <tableColumn id="1" name="№" dataDxfId="11"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="10"/>
+    <tableColumn id="8" name="Производитель" dataDxfId="9"/>
+    <tableColumn id="9" name="Артикул" dataDxfId="8"/>
+    <tableColumn id="3" name="Параметры" dataDxfId="7"/>
+    <tableColumn id="6" name="Цена розница" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица512" displayName="Таблица512" ref="A1:F10" totalsRowShown="0">
-  <autoFilter ref="A1:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица512" displayName="Таблица512" ref="A1:F26" totalsRowShown="0">
+  <autoFilter ref="A1:F26"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="14"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="13"/>
-    <tableColumn id="5" name="Производитель" dataDxfId="1"/>
-    <tableColumn id="3" name="Артикул" dataDxfId="12"/>
-    <tableColumn id="6" name="Параметры" dataDxfId="0"/>
-    <tableColumn id="4" name="Цена розница" dataDxfId="11"/>
+    <tableColumn id="1" name="№" dataDxfId="5"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="4"/>
+    <tableColumn id="5" name="Производитель" dataDxfId="3"/>
+    <tableColumn id="3" name="Артикул" dataDxfId="2"/>
+    <tableColumn id="6" name="Параметры" dataDxfId="1"/>
+    <tableColumn id="4" name="Цена розница" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2583,7 +2773,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2897,16 +3087,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3048,7 +3239,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="F9" s="32">
         <v>1050</v>
       </c>
     </row>
@@ -3056,22 +3247,289 @@
       <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12">
+      <c r="E10" s="10"/>
+      <c r="F10" s="33">
         <v>4400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="34">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="34">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="35">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="35">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="36">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="35">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="35">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="35">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="35">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="36">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="36">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="35">
+        <v>19825</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Вентлиторы.XLSX
+++ b/Вентлиторы.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Электродвигатели" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="97">
   <si>
     <t>Наименование</t>
   </si>
@@ -302,15 +302,23 @@
   </si>
   <si>
     <t>mb24-5</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Kip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -460,7 +468,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -507,7 +515,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,7 +554,29 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="55">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -678,6 +708,22 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -786,6 +832,24 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -943,95 +1007,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1050,6 +1025,95 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1068,23 +1132,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1103,6 +1150,59 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1173,6 +1273,24 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1337,90 +1455,96 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:F18" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <autoFilter ref="A1:F18"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="44"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="43"/>
-    <tableColumn id="6" name="Производитель" dataDxfId="42"/>
-    <tableColumn id="3" name="Артикул" dataDxfId="41"/>
-    <tableColumn id="4" name="Параметры" dataDxfId="40"/>
-    <tableColumn id="7" name="Цена розница" dataDxfId="39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:G18" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+  <autoFilter ref="A1:G18"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="№" dataDxfId="50"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="49"/>
+    <tableColumn id="6" name="Производитель" dataDxfId="48"/>
+    <tableColumn id="3" name="Артикул" dataDxfId="47"/>
+    <tableColumn id="4" name="Параметры" dataDxfId="46"/>
+    <tableColumn id="7" name="Цена розница" dataDxfId="45"/>
+    <tableColumn id="5" name="Группа" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица279" displayName="Таблица279" ref="A1:F18" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="A1:F18"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="34"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="33"/>
-    <tableColumn id="9" name="Производитель" dataDxfId="32"/>
-    <tableColumn id="3" name="Артикул" dataDxfId="31"/>
-    <tableColumn id="4" name="Параметры" dataDxfId="30"/>
-    <tableColumn id="7" name="Цена розница" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица279" displayName="Таблица279" ref="A1:G18" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+  <autoFilter ref="A1:G18"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="№" dataDxfId="39"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="38"/>
+    <tableColumn id="9" name="Производитель" dataDxfId="37"/>
+    <tableColumn id="3" name="Артикул" dataDxfId="36"/>
+    <tableColumn id="4" name="Параметры" dataDxfId="35"/>
+    <tableColumn id="7" name="Цена розница" dataDxfId="34"/>
+    <tableColumn id="5" name="Группа" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица27" displayName="Таблица27" ref="A1:F18" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A1:F18"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="24"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="23"/>
-    <tableColumn id="3" name="Производитель" dataDxfId="22"/>
-    <tableColumn id="5" name="Артикул" dataDxfId="21"/>
-    <tableColumn id="4" name="Параметры" dataDxfId="20"/>
-    <tableColumn id="7" name="Цена розница" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица27" displayName="Таблица27" ref="A1:G18" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A1:G18"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="№" dataDxfId="28"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="27"/>
+    <tableColumn id="3" name="Производитель" dataDxfId="26"/>
+    <tableColumn id="5" name="Артикул" dataDxfId="25"/>
+    <tableColumn id="4" name="Параметры" dataDxfId="24"/>
+    <tableColumn id="7" name="Цена розница" dataDxfId="23"/>
+    <tableColumn id="6" name="Группа" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Таблица510" displayName="Таблица510" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="18"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="17"/>
-    <tableColumn id="8" name="Производитель" dataDxfId="16"/>
-    <tableColumn id="9" name="Артикул" dataDxfId="15"/>
-    <tableColumn id="5" name="Параметры" dataDxfId="14"/>
-    <tableColumn id="6" name="Цена розница" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Таблица510" displayName="Таблица510" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="№" dataDxfId="21"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="20"/>
+    <tableColumn id="8" name="Производитель" dataDxfId="19"/>
+    <tableColumn id="9" name="Артикул" dataDxfId="18"/>
+    <tableColumn id="5" name="Параметры" dataDxfId="17"/>
+    <tableColumn id="6" name="Цена розница" dataDxfId="16"/>
+    <tableColumn id="3" name="Группа" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица10" displayName="Таблица10" ref="A1:F13" totalsRowShown="0" tableBorderDxfId="12">
-  <autoFilter ref="A1:F13"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="11"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="10"/>
-    <tableColumn id="8" name="Производитель" dataDxfId="9"/>
-    <tableColumn id="9" name="Артикул" dataDxfId="8"/>
-    <tableColumn id="3" name="Параметры" dataDxfId="7"/>
-    <tableColumn id="6" name="Цена розница" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица10" displayName="Таблица10" ref="A1:G13" totalsRowShown="0" tableBorderDxfId="14">
+  <autoFilter ref="A1:G13"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="№" dataDxfId="13"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="12"/>
+    <tableColumn id="8" name="Производитель" dataDxfId="11"/>
+    <tableColumn id="9" name="Артикул" dataDxfId="10"/>
+    <tableColumn id="3" name="Параметры" dataDxfId="9"/>
+    <tableColumn id="6" name="Цена розница" dataDxfId="8"/>
+    <tableColumn id="4" name="Группа" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица512" displayName="Таблица512" ref="A1:F26" totalsRowShown="0">
-  <autoFilter ref="A1:F26"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="5"/>
-    <tableColumn id="2" name="Наименование" dataDxfId="4"/>
-    <tableColumn id="5" name="Производитель" dataDxfId="3"/>
-    <tableColumn id="3" name="Артикул" dataDxfId="2"/>
-    <tableColumn id="6" name="Параметры" dataDxfId="1"/>
-    <tableColumn id="4" name="Цена розница" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица512" displayName="Таблица512" ref="A1:G26" totalsRowShown="0">
+  <autoFilter ref="A1:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="№" dataDxfId="6"/>
+    <tableColumn id="2" name="Наименование" dataDxfId="5"/>
+    <tableColumn id="5" name="Производитель" dataDxfId="4"/>
+    <tableColumn id="3" name="Артикул" dataDxfId="3"/>
+    <tableColumn id="6" name="Параметры" dataDxfId="2"/>
+    <tableColumn id="4" name="Цена розница" dataDxfId="1"/>
+    <tableColumn id="7" name="Группа" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1713,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,12 +1851,13 @@
     <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1751,8 +1876,11 @@
       <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1769,8 +1897,9 @@
       <c r="F2" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1787,8 +1916,9 @@
       <c r="F3" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1805,8 +1935,9 @@
       <c r="F4" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1823,8 +1954,9 @@
       <c r="F5" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1841,8 +1973,9 @@
       <c r="F6" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1859,8 +1992,9 @@
       <c r="F7" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1877,8 +2011,9 @@
       <c r="F8" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1895,8 +2030,9 @@
       <c r="F9" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1913,8 +2049,9 @@
       <c r="F10" s="1">
         <v>13000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1931,8 +2068,9 @@
       <c r="F11" s="1">
         <v>15500</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1949,8 +2087,9 @@
       <c r="F12" s="1">
         <v>19900</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1967,8 +2106,9 @@
       <c r="F13" s="1">
         <v>23000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1985,8 +2125,9 @@
       <c r="F14" s="1">
         <v>46000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2003,8 +2144,9 @@
       <c r="F15" s="1">
         <v>45800</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2021,8 +2163,9 @@
       <c r="F16" s="1">
         <v>66719</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2039,8 +2182,9 @@
       <c r="F17" s="1">
         <v>80000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2057,6 +2201,7 @@
       <c r="F18" s="6">
         <v>96000</v>
       </c>
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2069,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2081,9 +2226,10 @@
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -2102,8 +2248,11 @@
       <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2120,8 +2269,11 @@
       <c r="F2" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2138,8 +2290,11 @@
       <c r="F3" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2156,8 +2311,11 @@
       <c r="F4" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2174,8 +2332,11 @@
       <c r="F5" s="1">
         <v>1300</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2192,8 +2353,11 @@
       <c r="F6" s="1">
         <v>1300</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2210,8 +2374,11 @@
       <c r="F7" s="1">
         <v>1550</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2228,8 +2395,11 @@
       <c r="F8" s="1">
         <v>1250</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2246,8 +2416,11 @@
       <c r="F9" s="1">
         <v>1250</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2264,8 +2437,11 @@
       <c r="F10" s="1">
         <v>1250</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2282,8 +2458,11 @@
       <c r="F11" s="1">
         <v>1350</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2300,8 +2479,11 @@
       <c r="F12" s="1">
         <v>1350</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2318,8 +2500,11 @@
       <c r="F13" s="1">
         <v>1300</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2336,8 +2521,11 @@
       <c r="F14" s="1">
         <v>3500</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2354,8 +2542,11 @@
       <c r="F15" s="1">
         <v>3500</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2372,8 +2563,11 @@
       <c r="F16" s="1">
         <v>3500</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2390,8 +2584,11 @@
       <c r="F17" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2407,6 +2604,9 @@
       </c>
       <c r="F18" s="1">
         <v>4000</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2419,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,9 +2632,10 @@
     <col min="3" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -2453,8 +2654,11 @@
       <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2471,8 +2675,11 @@
       <c r="F2" s="1">
         <v>8700</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2489,8 +2696,11 @@
       <c r="F3" s="1">
         <v>8700</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2507,8 +2717,11 @@
       <c r="F4" s="1">
         <v>8700</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2525,8 +2738,11 @@
       <c r="F5" s="1">
         <v>8766</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2543,8 +2759,11 @@
       <c r="F6" s="1">
         <v>8766</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2561,8 +2780,11 @@
       <c r="F7" s="1">
         <v>7275</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2579,8 +2801,11 @@
       <c r="F8" s="1">
         <v>7275</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2597,8 +2822,11 @@
       <c r="F9" s="1">
         <v>10033</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2615,8 +2843,11 @@
       <c r="F10" s="1">
         <v>13133</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2633,8 +2864,11 @@
       <c r="F11" s="1">
         <v>13766</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2651,8 +2885,11 @@
       <c r="F12" s="1">
         <v>11950</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2669,8 +2906,11 @@
       <c r="F13" s="1">
         <v>14450</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2687,8 +2927,11 @@
       <c r="F14" s="1">
         <v>17000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2705,8 +2948,11 @@
       <c r="F15" s="1">
         <v>21340</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2723,8 +2969,11 @@
       <c r="F16" s="1">
         <v>28000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2741,8 +2990,11 @@
       <c r="F17" s="1">
         <v>32000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2758,6 +3010,9 @@
       </c>
       <c r="F18" s="6">
         <v>40000</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2770,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2782,12 +3037,13 @@
     <col min="3" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2806,8 +3062,11 @@
       <c r="F1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2818,8 +3077,9 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2834,8 +3094,11 @@
       <c r="F3" s="1">
         <v>1050</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2852,8 +3115,11 @@
       <c r="F4" s="1">
         <v>4400</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2864,6 +3130,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2876,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2887,9 +3154,10 @@
     <col min="2" max="4" width="24.88671875" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
     <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2908,8 +3176,11 @@
       <c r="F1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2922,8 +3193,9 @@
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2936,8 +3208,9 @@
         <v>6</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2950,8 +3223,9 @@
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2964,8 +3238,9 @@
         <v>12</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2978,8 +3253,9 @@
         <v>15</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2992,8 +3268,9 @@
         <v>18</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3006,8 +3283,9 @@
         <v>21</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3020,8 +3298,9 @@
         <v>24</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3034,8 +3313,9 @@
         <v>26</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3048,8 +3328,9 @@
         <v>32</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3062,8 +3343,9 @@
         <v>36</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3076,6 +3358,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="1"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3087,10 +3370,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3099,9 +3382,10 @@
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3120,8 +3404,11 @@
       <c r="F1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3132,8 +3419,11 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3148,8 +3438,11 @@
       <c r="F3" s="6">
         <v>1650</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3164,8 +3457,11 @@
       <c r="F4" s="6">
         <v>1100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3180,8 +3476,11 @@
       <c r="F5" s="6">
         <v>6000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3196,8 +3495,11 @@
       <c r="F6" s="6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3212,8 +3514,11 @@
       <c r="F7" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -3226,8 +3531,11 @@
       <c r="F8" s="6">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -3242,8 +3550,11 @@
       <c r="F9" s="32">
         <v>1050</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -3258,8 +3569,11 @@
       <c r="F10" s="33">
         <v>4400</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -3276,8 +3590,11 @@
       <c r="F11" s="34">
         <v>2008</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -3294,8 +3611,11 @@
       <c r="F12" s="34">
         <v>338</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -3314,8 +3634,11 @@
       <c r="F13" s="35">
         <v>5499</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="28" t="s">
         <v>68</v>
@@ -3330,8 +3653,11 @@
       <c r="F14" s="35">
         <v>2384</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="29" t="s">
         <v>70</v>
@@ -3346,8 +3672,11 @@
       <c r="F15" s="36">
         <v>1093</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="30" t="s">
         <v>72</v>
@@ -3360,8 +3689,11 @@
       <c r="F16" s="35">
         <v>11.78</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="30" t="s">
         <v>72</v>
@@ -3374,8 +3706,11 @@
       <c r="F17" s="35">
         <v>11.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="30" t="s">
         <v>72</v>
@@ -3388,8 +3723,11 @@
       <c r="F18" s="35">
         <v>11.78</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="30" t="s">
         <v>72</v>
@@ -3402,8 +3740,11 @@
       <c r="F19" s="35">
         <v>11.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="11" t="s">
         <v>77</v>
@@ -3418,8 +3759,11 @@
       <c r="F20" s="36">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="11" t="s">
         <v>79</v>
@@ -3436,8 +3780,11 @@
       <c r="F21" s="36">
         <v>356</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="30" t="s">
         <v>79</v>
@@ -3454,8 +3801,11 @@
       <c r="F22" s="35">
         <v>241</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="30" t="s">
         <v>84</v>
@@ -3470,8 +3820,11 @@
       <c r="F23" s="35">
         <v>288</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
         <v>86</v>
@@ -3488,8 +3841,11 @@
       <c r="F24" s="35">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="30" t="s">
         <v>86</v>
@@ -3506,8 +3862,11 @@
       <c r="F25" s="35">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="16" t="s">
         <v>91</v>
@@ -3523,6 +3882,9 @@
       </c>
       <c r="F26" s="35">
         <v>19825</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
